--- a/data/total.xlsx
+++ b/data/total.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t xml:space="preserve">Регион</t>
   </si>
@@ -385,9 +385,6 @@
   <si>
     <t xml:space="preserve">ярославская область</t>
   </si>
-  <si>
-    <t xml:space="preserve">республика карачаево-черкессияг</t>
-  </si>
 </sst>
 </file>
 
@@ -19981,9 +19978,7 @@
       <c r="D386" t="s">
         <v>18</v>
       </c>
-      <c r="E386" t="n">
-        <v>2295</v>
-      </c>
+      <c r="E386"/>
       <c r="F386" t="n">
         <v>88943.3</v>
       </c>
@@ -20031,9 +20026,7 @@
       <c r="D387" t="s">
         <v>18</v>
       </c>
-      <c r="E387" t="n">
-        <v>2295</v>
-      </c>
+      <c r="E387"/>
       <c r="F387" t="n">
         <v>82489.7</v>
       </c>
@@ -20081,9 +20074,7 @@
       <c r="D388" t="s">
         <v>18</v>
       </c>
-      <c r="E388" t="n">
-        <v>2295</v>
-      </c>
+      <c r="E388"/>
       <c r="F388" t="n">
         <v>87688.4</v>
       </c>
@@ -20131,9 +20122,7 @@
       <c r="D389" t="s">
         <v>25</v>
       </c>
-      <c r="E389" t="n">
-        <v>2295</v>
-      </c>
+      <c r="E389"/>
       <c r="F389" t="n">
         <v>100623.5</v>
       </c>
@@ -20181,9 +20170,7 @@
       <c r="D390" t="s">
         <v>25</v>
       </c>
-      <c r="E390" t="n">
-        <v>2295</v>
-      </c>
+      <c r="E390"/>
       <c r="F390" t="n">
         <v>97735.6</v>
       </c>
@@ -20231,9 +20218,7 @@
       <c r="D391" t="s">
         <v>25</v>
       </c>
-      <c r="E391" t="n">
-        <v>2295</v>
-      </c>
+      <c r="E391"/>
       <c r="F391" t="n">
         <v>100588.7</v>
       </c>
@@ -20281,9 +20266,7 @@
       <c r="D392" t="s">
         <v>30</v>
       </c>
-      <c r="E392" t="n">
-        <v>2295</v>
-      </c>
+      <c r="E392"/>
       <c r="F392" t="n">
         <v>87824.2</v>
       </c>
@@ -20331,9 +20314,7 @@
       <c r="D393" t="s">
         <v>30</v>
       </c>
-      <c r="E393" t="n">
-        <v>2295</v>
-      </c>
+      <c r="E393"/>
       <c r="F393" t="n">
         <v>89141.4</v>
       </c>
@@ -20381,9 +20362,7 @@
       <c r="D394" t="s">
         <v>30</v>
       </c>
-      <c r="E394" t="n">
-        <v>2295</v>
-      </c>
+      <c r="E394"/>
       <c r="F394" t="n">
         <v>84370.5</v>
       </c>
@@ -20431,9 +20410,7 @@
       <c r="D395" t="s">
         <v>34</v>
       </c>
-      <c r="E395" t="n">
-        <v>2295</v>
-      </c>
+      <c r="E395"/>
       <c r="F395" t="n">
         <v>82288.7</v>
       </c>
@@ -20481,9 +20458,7 @@
       <c r="D396" t="s">
         <v>34</v>
       </c>
-      <c r="E396" t="n">
-        <v>2295</v>
-      </c>
+      <c r="E396"/>
       <c r="F396" t="n">
         <v>81537.1</v>
       </c>
@@ -20531,9 +20506,7 @@
       <c r="D397" t="s">
         <v>34</v>
       </c>
-      <c r="E397" t="n">
-        <v>2295</v>
-      </c>
+      <c r="E397"/>
       <c r="F397" t="n">
         <v>112190.1</v>
       </c>
@@ -30787,7 +30760,9 @@
       <c r="F602" t="n">
         <v>26970.4</v>
       </c>
-      <c r="G602"/>
+      <c r="G602" t="n">
+        <v>13.1</v>
+      </c>
       <c r="H602" t="n">
         <v>34.3</v>
       </c>
@@ -30835,7 +30810,9 @@
       <c r="F603" t="n">
         <v>27225.6</v>
       </c>
-      <c r="G603"/>
+      <c r="G603" t="n">
+        <v>14.8</v>
+      </c>
       <c r="H603" t="n">
         <v>30.8</v>
       </c>
@@ -30883,7 +30860,9 @@
       <c r="F604" t="n">
         <v>28643.9</v>
       </c>
-      <c r="G604"/>
+      <c r="G604" t="n">
+        <v>14.3</v>
+      </c>
       <c r="H604" t="n">
         <v>30.5</v>
       </c>
@@ -30931,7 +30910,9 @@
       <c r="F605" t="n">
         <v>27986.6</v>
       </c>
-      <c r="G605"/>
+      <c r="G605" t="n">
+        <v>16.4</v>
+      </c>
       <c r="H605" t="n">
         <v>33</v>
       </c>
@@ -30979,7 +30960,9 @@
       <c r="F606" t="n">
         <v>28951.5</v>
       </c>
-      <c r="G606"/>
+      <c r="G606" t="n">
+        <v>15.4</v>
+      </c>
       <c r="H606" t="n">
         <v>33.3</v>
       </c>
@@ -31027,7 +31010,9 @@
       <c r="F607" t="n">
         <v>32800.3</v>
       </c>
-      <c r="G607"/>
+      <c r="G607" t="n">
+        <v>14.9</v>
+      </c>
       <c r="H607" t="n">
         <v>32.3</v>
       </c>
@@ -31075,7 +31060,9 @@
       <c r="F608" t="n">
         <v>30765.2</v>
       </c>
-      <c r="G608"/>
+      <c r="G608" t="n">
+        <v>14.7</v>
+      </c>
       <c r="H608" t="n">
         <v>30.8</v>
       </c>
@@ -31123,7 +31110,9 @@
       <c r="F609" t="n">
         <v>28114.7</v>
       </c>
-      <c r="G609"/>
+      <c r="G609" t="n">
+        <v>15</v>
+      </c>
       <c r="H609" t="n">
         <v>33.5</v>
       </c>
@@ -31171,7 +31160,9 @@
       <c r="F610" t="n">
         <v>29088.2</v>
       </c>
-      <c r="G610"/>
+      <c r="G610" t="n">
+        <v>14.7</v>
+      </c>
       <c r="H610" t="n">
         <v>32.3</v>
       </c>
@@ -31219,7 +31210,9 @@
       <c r="F611" t="n">
         <v>29435.5</v>
       </c>
-      <c r="G611"/>
+      <c r="G611" t="n">
+        <v>15</v>
+      </c>
       <c r="H611" t="n">
         <v>32.1</v>
       </c>
@@ -31267,7 +31260,9 @@
       <c r="F612" t="n">
         <v>29230.6</v>
       </c>
-      <c r="G612"/>
+      <c r="G612" t="n">
+        <v>15.3</v>
+      </c>
       <c r="H612" t="n">
         <v>33.6</v>
       </c>
@@ -31315,7 +31310,9 @@
       <c r="F613" t="n">
         <v>40028</v>
       </c>
-      <c r="G613"/>
+      <c r="G613" t="n">
+        <v>14.8</v>
+      </c>
       <c r="H613" t="n">
         <v>33.3</v>
       </c>
@@ -50543,366 +50540,6 @@
       <c r="P997" t="n">
         <v>0.81</v>
       </c>
-    </row>
-    <row r="998">
-      <c r="A998" t="s">
-        <v>124</v>
-      </c>
-      <c r="B998" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C998" t="s">
-        <v>17</v>
-      </c>
-      <c r="D998" t="s">
-        <v>18</v>
-      </c>
-      <c r="E998" t="n">
-        <v>2295</v>
-      </c>
-      <c r="F998"/>
-      <c r="G998" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="H998"/>
-      <c r="I998"/>
-      <c r="J998"/>
-      <c r="K998"/>
-      <c r="L998"/>
-      <c r="M998"/>
-      <c r="N998"/>
-      <c r="O998"/>
-      <c r="P998"/>
-    </row>
-    <row r="999">
-      <c r="A999" t="s">
-        <v>124</v>
-      </c>
-      <c r="B999" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C999" t="s">
-        <v>21</v>
-      </c>
-      <c r="D999" t="s">
-        <v>18</v>
-      </c>
-      <c r="E999" t="n">
-        <v>2295</v>
-      </c>
-      <c r="F999"/>
-      <c r="G999" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="H999"/>
-      <c r="I999"/>
-      <c r="J999"/>
-      <c r="K999"/>
-      <c r="L999"/>
-      <c r="M999"/>
-      <c r="N999"/>
-      <c r="O999"/>
-      <c r="P999"/>
-    </row>
-    <row r="1000">
-      <c r="A1000" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1000" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C1000" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1000" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1000" t="n">
-        <v>2295</v>
-      </c>
-      <c r="F1000"/>
-      <c r="G1000" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="H1000"/>
-      <c r="I1000"/>
-      <c r="J1000"/>
-      <c r="K1000"/>
-      <c r="L1000"/>
-      <c r="M1000"/>
-      <c r="N1000"/>
-      <c r="O1000"/>
-      <c r="P1000"/>
-    </row>
-    <row r="1001">
-      <c r="A1001" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1001" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C1001" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1001" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1001" t="n">
-        <v>2295</v>
-      </c>
-      <c r="F1001"/>
-      <c r="G1001" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="H1001"/>
-      <c r="I1001"/>
-      <c r="J1001"/>
-      <c r="K1001"/>
-      <c r="L1001"/>
-      <c r="M1001"/>
-      <c r="N1001"/>
-      <c r="O1001"/>
-      <c r="P1001"/>
-    </row>
-    <row r="1002">
-      <c r="A1002" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1002" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C1002" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1002" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1002" t="n">
-        <v>2295</v>
-      </c>
-      <c r="F1002"/>
-      <c r="G1002" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="H1002"/>
-      <c r="I1002"/>
-      <c r="J1002"/>
-      <c r="K1002"/>
-      <c r="L1002"/>
-      <c r="M1002"/>
-      <c r="N1002"/>
-      <c r="O1002"/>
-      <c r="P1002"/>
-    </row>
-    <row r="1003">
-      <c r="A1003" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1003" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C1003" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1003" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1003" t="n">
-        <v>2295</v>
-      </c>
-      <c r="F1003"/>
-      <c r="G1003" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="H1003"/>
-      <c r="I1003"/>
-      <c r="J1003"/>
-      <c r="K1003"/>
-      <c r="L1003"/>
-      <c r="M1003"/>
-      <c r="N1003"/>
-      <c r="O1003"/>
-      <c r="P1003"/>
-    </row>
-    <row r="1004">
-      <c r="A1004" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1004" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C1004" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1004" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1004" t="n">
-        <v>2295</v>
-      </c>
-      <c r="F1004"/>
-      <c r="G1004" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="H1004"/>
-      <c r="I1004"/>
-      <c r="J1004"/>
-      <c r="K1004"/>
-      <c r="L1004"/>
-      <c r="M1004"/>
-      <c r="N1004"/>
-      <c r="O1004"/>
-      <c r="P1004"/>
-    </row>
-    <row r="1005">
-      <c r="A1005" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1005" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C1005" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1005" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1005" t="n">
-        <v>2295</v>
-      </c>
-      <c r="F1005"/>
-      <c r="G1005" t="n">
-        <v>15</v>
-      </c>
-      <c r="H1005"/>
-      <c r="I1005"/>
-      <c r="J1005"/>
-      <c r="K1005"/>
-      <c r="L1005"/>
-      <c r="M1005"/>
-      <c r="N1005"/>
-      <c r="O1005"/>
-      <c r="P1005"/>
-    </row>
-    <row r="1006">
-      <c r="A1006" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1006" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C1006" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1006" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1006" t="n">
-        <v>2295</v>
-      </c>
-      <c r="F1006"/>
-      <c r="G1006" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="H1006"/>
-      <c r="I1006"/>
-      <c r="J1006"/>
-      <c r="K1006"/>
-      <c r="L1006"/>
-      <c r="M1006"/>
-      <c r="N1006"/>
-      <c r="O1006"/>
-      <c r="P1006"/>
-    </row>
-    <row r="1007">
-      <c r="A1007" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1007" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C1007" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1007" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1007" t="n">
-        <v>2295</v>
-      </c>
-      <c r="F1007"/>
-      <c r="G1007" t="n">
-        <v>15</v>
-      </c>
-      <c r="H1007"/>
-      <c r="I1007"/>
-      <c r="J1007"/>
-      <c r="K1007"/>
-      <c r="L1007"/>
-      <c r="M1007"/>
-      <c r="N1007"/>
-      <c r="O1007"/>
-      <c r="P1007"/>
-    </row>
-    <row r="1008">
-      <c r="A1008" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1008" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C1008" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1008" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1008" t="n">
-        <v>2295</v>
-      </c>
-      <c r="F1008"/>
-      <c r="G1008" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="H1008"/>
-      <c r="I1008"/>
-      <c r="J1008"/>
-      <c r="K1008"/>
-      <c r="L1008"/>
-      <c r="M1008"/>
-      <c r="N1008"/>
-      <c r="O1008"/>
-      <c r="P1008"/>
-    </row>
-    <row r="1009">
-      <c r="A1009" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1009" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C1009" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1009" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1009" t="n">
-        <v>2295</v>
-      </c>
-      <c r="F1009"/>
-      <c r="G1009" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="H1009"/>
-      <c r="I1009"/>
-      <c r="J1009"/>
-      <c r="K1009"/>
-      <c r="L1009"/>
-      <c r="M1009"/>
-      <c r="N1009"/>
-      <c r="O1009"/>
-      <c r="P1009"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/total.xlsx
+++ b/data/total.xlsx
@@ -19978,7 +19978,9 @@
       <c r="D386" t="s">
         <v>18</v>
       </c>
-      <c r="E386"/>
+      <c r="E386" t="n">
+        <v>2295</v>
+      </c>
       <c r="F386" t="n">
         <v>88943.3</v>
       </c>
@@ -20026,7 +20028,9 @@
       <c r="D387" t="s">
         <v>18</v>
       </c>
-      <c r="E387"/>
+      <c r="E387" t="n">
+        <v>2295</v>
+      </c>
       <c r="F387" t="n">
         <v>82489.7</v>
       </c>
@@ -20074,7 +20078,9 @@
       <c r="D388" t="s">
         <v>18</v>
       </c>
-      <c r="E388"/>
+      <c r="E388" t="n">
+        <v>2295</v>
+      </c>
       <c r="F388" t="n">
         <v>87688.4</v>
       </c>
@@ -20122,7 +20128,9 @@
       <c r="D389" t="s">
         <v>25</v>
       </c>
-      <c r="E389"/>
+      <c r="E389" t="n">
+        <v>2295</v>
+      </c>
       <c r="F389" t="n">
         <v>100623.5</v>
       </c>
@@ -20170,7 +20178,9 @@
       <c r="D390" t="s">
         <v>25</v>
       </c>
-      <c r="E390"/>
+      <c r="E390" t="n">
+        <v>2295</v>
+      </c>
       <c r="F390" t="n">
         <v>97735.6</v>
       </c>
@@ -20218,7 +20228,9 @@
       <c r="D391" t="s">
         <v>25</v>
       </c>
-      <c r="E391"/>
+      <c r="E391" t="n">
+        <v>2295</v>
+      </c>
       <c r="F391" t="n">
         <v>100588.7</v>
       </c>
@@ -20266,7 +20278,9 @@
       <c r="D392" t="s">
         <v>30</v>
       </c>
-      <c r="E392"/>
+      <c r="E392" t="n">
+        <v>2295</v>
+      </c>
       <c r="F392" t="n">
         <v>87824.2</v>
       </c>
@@ -20314,7 +20328,9 @@
       <c r="D393" t="s">
         <v>30</v>
       </c>
-      <c r="E393"/>
+      <c r="E393" t="n">
+        <v>2295</v>
+      </c>
       <c r="F393" t="n">
         <v>89141.4</v>
       </c>
@@ -20362,7 +20378,9 @@
       <c r="D394" t="s">
         <v>30</v>
       </c>
-      <c r="E394"/>
+      <c r="E394" t="n">
+        <v>2295</v>
+      </c>
       <c r="F394" t="n">
         <v>84370.5</v>
       </c>
@@ -20410,7 +20428,9 @@
       <c r="D395" t="s">
         <v>34</v>
       </c>
-      <c r="E395"/>
+      <c r="E395" t="n">
+        <v>2295</v>
+      </c>
       <c r="F395" t="n">
         <v>82288.7</v>
       </c>
@@ -20458,7 +20478,9 @@
       <c r="D396" t="s">
         <v>34</v>
       </c>
-      <c r="E396"/>
+      <c r="E396" t="n">
+        <v>2295</v>
+      </c>
       <c r="F396" t="n">
         <v>81537.1</v>
       </c>
@@ -20506,7 +20528,9 @@
       <c r="D397" t="s">
         <v>34</v>
       </c>
-      <c r="E397"/>
+      <c r="E397" t="n">
+        <v>2295</v>
+      </c>
       <c r="F397" t="n">
         <v>112190.1</v>
       </c>
